--- a/MeterTest/Source/Test/Demo_冻结数据.xlsx
+++ b/MeterTest/Source/Test/Demo_冻结数据.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE07D32-3BA9-4945-A80F-0E27CB2EADC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(当前)正向有功总电能</t>
+  </si>
+  <si>
+    <t>(当前)反向有功总电能</t>
+  </si>
+  <si>
+    <t>(当前)A相正向有功电能</t>
+  </si>
+  <si>
+    <t>(当前)A相反向有功电能</t>
+  </si>
+  <si>
+    <t>(当前)B相正向有功电能</t>
+  </si>
+  <si>
+    <t>(当前)B相反向有功电能</t>
+  </si>
+  <si>
+    <t>(当前)C相正向有功电能</t>
+  </si>
+  <si>
+    <t>(当前)C相反向有功电能</t>
+  </si>
+  <si>
+    <t>(当前)正向无功总电能</t>
+  </si>
+  <si>
+    <t>(当前)反向无功总电能</t>
+  </si>
+  <si>
+    <t>(当前)A相正向无功电能</t>
+  </si>
+  <si>
+    <t>(当前)A相反向无功电能</t>
+  </si>
+  <si>
+    <t>(当前)B相正向无功电能</t>
+  </si>
+  <si>
+    <t>(当前)B相反向无功电能</t>
+  </si>
+  <si>
+    <t>(当前)C相正向无功电能</t>
+  </si>
+  <si>
+    <t>(当前)C相反向无功电能</t>
+  </si>
+  <si>
+    <t>电压A</t>
+  </si>
+  <si>
+    <t>电压B</t>
+  </si>
+  <si>
+    <t>电压C</t>
+  </si>
+  <si>
+    <t>A相电流</t>
+  </si>
+  <si>
+    <t>B相电流</t>
+  </si>
+  <si>
+    <t>C相电流</t>
+  </si>
+  <si>
+    <t>瞬时总有功功率</t>
+  </si>
+  <si>
+    <t>瞬时A相有功功率</t>
+  </si>
+  <si>
+    <t>瞬时B相有功功率</t>
+  </si>
+  <si>
+    <t>瞬时C相有功功率</t>
+  </si>
+  <si>
+    <t>瞬时总无功功率</t>
+  </si>
+  <si>
+    <t>瞬时A相无功功率</t>
+  </si>
+  <si>
+    <t>瞬时B相无功功率</t>
+  </si>
+  <si>
+    <t>瞬时C相无功功率</t>
+  </si>
+  <si>
+    <t>瞬时视在总功率</t>
+  </si>
+  <si>
+    <t>瞬时A相视在功率</t>
+  </si>
+  <si>
+    <t>瞬时B相视在功率</t>
+  </si>
+  <si>
+    <t>瞬时C相视在功率</t>
+  </si>
+  <si>
+    <t>总功率因数</t>
+  </si>
+  <si>
+    <t>A相功率因数</t>
+  </si>
+  <si>
+    <t>B相功率因数</t>
+  </si>
+  <si>
+    <t>C相功率因数</t>
+  </si>
+  <si>
+    <t>频率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -346,23 +467,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>